--- a/week 8 (Lab 4- Binomials and AIC)/Binomial AIC Lab.xlsx
+++ b/week 8 (Lab 4- Binomials and AIC)/Binomial AIC Lab.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Dropbox\Teaching\WLE 411 - Populations Lab\Spring 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://umainesystem-my.sharepoint.com/personal/liam_berigan_maine_edu/Documents/MaineAnalysis/WLE411/week 8 (Lab 4- Binomials and AIC)/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_6E4039C9E53DCDFFEB9DD46C33C66400902D7DBE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46923092-AF1C-40A8-9105-14C974B5DCAC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9435"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lab Excercise" sheetId="1" r:id="rId1"/>
+    <sheet name="Lab Exercise" sheetId="1" r:id="rId1"/>
     <sheet name="Assignment" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">'Lab Excercise'!$J$2</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">'Lab Exercise'!$J$2</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
@@ -30,7 +31,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">'Lab Excercise'!$K$1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">'Lab Exercise'!$K$1</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
@@ -495,7 +496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
@@ -1128,7 +1129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
